--- a/branches/Update-value-set/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/Update-value-set/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:03:55+00:00</t>
+    <t>2023-03-03T16:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
